--- a/subvariants/XBB.1_recombination/RBD_mutations.xlsx
+++ b/subvariants/XBB.1_recombination/RBD_mutations.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5E5565-1867-0B41-9831-BB3326460376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20039D0D-39FA-4B1C-ACA1-A3A64BA48657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mutational Prevalence" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Variant</t>
   </si>
@@ -99,13 +100,95 @@
   </si>
   <si>
     <t>XBB.1</t>
+  </si>
+  <si>
+    <t>G339H</t>
+  </si>
+  <si>
+    <t>R346T</t>
+  </si>
+  <si>
+    <t>L368I</t>
+  </si>
+  <si>
+    <t>V445P</t>
+  </si>
+  <si>
+    <t>G446S</t>
+  </si>
+  <si>
+    <t>N460K</t>
+  </si>
+  <si>
+    <t>F490S</t>
+  </si>
+  <si>
+    <t>Number of Sequences</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
+    <t>S373P</t>
+  </si>
+  <si>
+    <t>S375F</t>
+  </si>
+  <si>
+    <t>T376A</t>
+  </si>
+  <si>
+    <t>D405N</t>
+  </si>
+  <si>
+    <t>R408S</t>
+  </si>
+  <si>
+    <t>K417N</t>
+  </si>
+  <si>
+    <t>N440K</t>
+  </si>
+  <si>
+    <t>S371F</t>
+  </si>
+  <si>
+    <t>S477N</t>
+  </si>
+  <si>
+    <t>T478K</t>
+  </si>
+  <si>
+    <t>E484A</t>
+  </si>
+  <si>
+    <t>F486P</t>
+  </si>
+  <si>
+    <t>Q498R</t>
+  </si>
+  <si>
+    <t>N501Y</t>
+  </si>
+  <si>
+    <t>Y505H</t>
+  </si>
+  <si>
+    <t>https://outbreak.info/compare-lineages?pango=XBB.1.5&amp;gene=S&amp;threshold=75&amp;nthresh=1&amp;sub=false&amp;dark=false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +198,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,14 +227,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -218,6 +314,54 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53F7EEF-2806-B64D-D8B2-1EC25BD76543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="25250" r="31369"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4095750" y="2657476"/>
+          <a:ext cx="7362826" cy="3590925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -524,13 +668,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EB2E31-3309-8849-B5B6-777E1D71F0F5}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -565,7 +709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -583,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -601,7 +745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -619,7 +763,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -637,7 +781,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -655,7 +799,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -673,7 +817,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -691,7 +835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -709,7 +853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -727,7 +871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -745,7 +889,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -763,7 +907,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -781,7 +925,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -799,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -817,7 +961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -835,7 +979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -853,7 +997,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -871,7 +1015,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -889,7 +1033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -907,7 +1051,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -930,4 +1074,303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AACB3C-4A86-4A3C-943C-22A9F77B4972}">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="2">
+        <f>B2/10168</f>
+        <v>0.98347757671125102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9992</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C23" si="0">B3/10168</f>
+        <v>0.98269079464988196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9839</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96764358772619985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9857</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96941384736428005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9856</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96931549960660901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9860</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96970889063729349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9852</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96892210857592442</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9895</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97315106215578284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9616</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94571203776553892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9329</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91748623131392604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9687</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95269472856018877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9653</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94935090479937057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9673</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95131785995279305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9757</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9595790715971676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9984</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98190401258851301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9960</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97954366640440593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9943</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97787175452399688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9919</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97551140833988981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9927</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97629819040125887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9970</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98052714398111718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9983</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98180566483084186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9969</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98042879622344614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/subvariants/XBB.1_recombination/RBD_mutations.xlsx
+++ b/subvariants/XBB.1_recombination/RBD_mutations.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20039D0D-39FA-4B1C-ACA1-A3A64BA48657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC5AC2-A732-45F4-80D6-060732F1DB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Mutational Prevalence" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
   <si>
     <t>Variant</t>
   </si>
@@ -178,6 +179,102 @@
   </si>
   <si>
     <t>https://outbreak.info/compare-lineages?pango=XBB.1.5&amp;gene=S&amp;threshold=75&amp;nthresh=1&amp;sub=false&amp;dark=false</t>
+  </si>
+  <si>
+    <t>Antibody</t>
+  </si>
+  <si>
+    <t>Other Names</t>
+  </si>
+  <si>
+    <t>PDB ID</t>
+  </si>
+  <si>
+    <t>LY-CoV1404</t>
+  </si>
+  <si>
+    <t>AZD1061</t>
+  </si>
+  <si>
+    <t>AZD8895</t>
+  </si>
+  <si>
+    <t>58G6</t>
+  </si>
+  <si>
+    <t>CV38-142</t>
+  </si>
+  <si>
+    <t>C110</t>
+  </si>
+  <si>
+    <t>Omi-9</t>
+  </si>
+  <si>
+    <t>P5C3</t>
+  </si>
+  <si>
+    <t>EY6A</t>
+  </si>
+  <si>
+    <t>COVOX-150</t>
+  </si>
+  <si>
+    <t>LY-CoV555</t>
+  </si>
+  <si>
+    <t>7mm</t>
+  </si>
+  <si>
+    <t>7l7e</t>
+  </si>
+  <si>
+    <t>7e3l</t>
+  </si>
+  <si>
+    <t>7lm9</t>
+  </si>
+  <si>
+    <t>7k8p</t>
+  </si>
+  <si>
+    <t>7zf4</t>
+  </si>
+  <si>
+    <t>7qtj</t>
+  </si>
+  <si>
+    <t>7zf3</t>
+  </si>
+  <si>
+    <t>7zf8</t>
+  </si>
+  <si>
+    <t>7kmg</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>bebtelovimab, LY3853113</t>
+  </si>
+  <si>
+    <t>bamlanivimab, LY3819253</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Recovered Patient</t>
+  </si>
+  <si>
+    <t>cilgavimab</t>
+  </si>
+  <si>
+    <t>tixagevimab</t>
+  </si>
+  <si>
+    <t>IgG1-K</t>
   </si>
 </sst>
 </file>
@@ -210,12 +307,78 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73FEFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5FC79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFD78"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8AD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4B93"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,10 +395,46 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1080,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AACB3C-4A86-4A3C-943C-22A9F77B4972}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -1373,4 +1572,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB94D24-33D7-4927-861C-65851F79E29D}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/subvariants/XBB.1_recombination/RBD_mutations.xlsx
+++ b/subvariants/XBB.1_recombination/RBD_mutations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC5AC2-A732-45F4-80D6-060732F1DB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A252A0F-3883-574F-8456-B15C7E390D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
   <si>
     <t>Variant</t>
   </si>
@@ -208,9 +208,6 @@
     <t>C110</t>
   </si>
   <si>
-    <t>Omi-9</t>
-  </si>
-  <si>
     <t>P5C3</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>7k8p</t>
   </si>
   <si>
-    <t>7zf4</t>
-  </si>
-  <si>
     <t>7qtj</t>
   </si>
   <si>
@@ -253,28 +247,58 @@
     <t>7kmg</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>bebtelovimab, LY3853113</t>
   </si>
   <si>
     <t>bamlanivimab, LY3819253</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Recovered Patient</t>
-  </si>
-  <si>
     <t>cilgavimab</t>
   </si>
   <si>
     <t>tixagevimab</t>
   </si>
   <si>
-    <t>IgG1-K</t>
+    <t>F486</t>
+  </si>
+  <si>
+    <t>RBD Neutralizing Residue(s)</t>
+  </si>
+  <si>
+    <t>Epitope Citation</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7457611/ (Extended Fig 7)</t>
+  </si>
+  <si>
+    <t>https://www.cell.com/cell-reports/fulltext/S2211-1247(21)01278-X</t>
+  </si>
+  <si>
+    <t>https://www.nejm.org/doi/full/10.1056/nejmoa2029849</t>
+  </si>
+  <si>
+    <t>https://www.science.org/doi/10.1126/scitranslmed.abf1906</t>
+  </si>
+  <si>
+    <t>Other Citation(s)</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41564-021-00972-2</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41392-022-01135-3</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/figure/The-CV38-142-epitope-on-the-RBD-involves-an-N-glycosylation-site-on-SARS-CoV_fig3_349267320</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41594-020-0480-y</t>
+  </si>
+  <si>
+    <t>https://www.cell.com/cell/fulltext/S0092-8674(21)00221-X</t>
+  </si>
+  <si>
+    <t>https://www.nejm.org/doi/full/10.1056/NEJMoa2102685</t>
   </si>
 </sst>
 </file>
@@ -283,9 +307,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,8 +330,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,12 +384,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF73FEFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD5FC79"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,14 +416,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -429,15 +456,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -871,9 +903,9 @@
       <selection activeCell="A15" sqref="A15:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -908,7 +940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -926,7 +958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -944,7 +976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -962,7 +994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -980,7 +1012,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -998,7 +1030,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +1048,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1052,7 +1084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1102,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +1120,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1138,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1156,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1142,7 +1174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1178,7 +1210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1228,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1246,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1232,7 +1264,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1250,7 +1282,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1283,14 +1315,14 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1301,7 +1333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1313,7 +1345,7 @@
         <v>0.98347757671125102</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1325,7 +1357,7 @@
         <v>0.98269079464988196</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1337,7 +1369,7 @@
         <v>0.96764358772619985</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1349,7 +1381,7 @@
         <v>0.96941384736428005</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1361,7 +1393,7 @@
         <v>0.96931549960660901</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1373,7 +1405,7 @@
         <v>0.96970889063729349</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1388,7 +1420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1400,7 +1432,7 @@
         <v>0.97315106215578284</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1412,7 +1444,7 @@
         <v>0.94571203776553892</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1424,7 +1456,7 @@
         <v>0.91748623131392604</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1436,7 +1468,7 @@
         <v>0.95269472856018877</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1448,7 +1480,7 @@
         <v>0.94935090479937057</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1460,7 +1492,7 @@
         <v>0.95131785995279305</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1472,7 +1504,7 @@
         <v>0.9595790715971676</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1484,7 +1516,7 @@
         <v>0.98190401258851301</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1496,7 +1528,7 @@
         <v>0.97954366640440593</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1508,7 +1540,7 @@
         <v>0.97787175452399688</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1520,7 +1552,7 @@
         <v>0.97551140833988981</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1532,7 +1564,7 @@
         <v>0.97629819040125887</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1544,7 +1576,7 @@
         <v>0.98052714398111718</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1556,7 +1588,7 @@
         <v>0.98180566483084186</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1576,20 +1608,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB94D24-33D7-4927-861C-65851F79E29D}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1600,128 +1633,157 @@
         <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B11" t="s">
         <v>70</v>
       </c>
-      <c r="D12" t="s">
-        <v>78</v>
+      <c r="C11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{CDA8BC0F-87C4-8C4C-8715-A90A54689B1C}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{C9E5AC58-5E2D-004F-8D92-F7379D6302FD}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{8746A671-9AF6-3143-8127-AA01F4BC5837}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{6B1BBDA9-39B9-3B4D-B872-2BCD9CEA6BF6}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{9FC5CC14-2965-BB4D-B6E3-38B6E3D4F6E6}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{734B5656-8FDC-8748-856D-7B56B61A5ED3}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{7E30F3C9-5F8D-0843-A7FB-66F5AB9C5287}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{BB105395-AC2E-7845-82FA-76CA6D5E0E7A}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{1B586730-2D0C-E04F-B8BC-E1C54C6D7688}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{A5D297BA-CF9F-044B-B4C3-C2301E9F3555}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/subvariants/XBB.1_recombination/RBD_mutations.xlsx
+++ b/subvariants/XBB.1_recombination/RBD_mutations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A252A0F-3883-574F-8456-B15C7E390D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB54A21D-54BF-E94B-8CDF-A53BE7FC7DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
   </bookViews>
@@ -220,9 +220,6 @@
     <t>LY-CoV555</t>
   </si>
   <si>
-    <t>7mm</t>
-  </si>
-  <si>
     <t>7l7e</t>
   </si>
   <si>
@@ -299,6 +296,9 @@
   </si>
   <si>
     <t>https://www.nejm.org/doi/full/10.1056/NEJMoa2102685</t>
+  </si>
+  <si>
+    <t>7mmo</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1633,13 +1633,13 @@
         <v>49</v>
       </c>
       <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1647,16 +1647,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1664,13 +1664,13 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1678,10 +1678,10 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="15"/>
     </row>
@@ -1690,13 +1690,13 @@
         <v>53</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1704,10 +1704,10 @@
         <v>54</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1715,10 +1715,10 @@
         <v>55</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1726,10 +1726,10 @@
         <v>56</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1737,10 +1737,10 @@
         <v>57</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1748,10 +1748,10 @@
         <v>58</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1759,13 +1759,13 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/subvariants/XBB.1_recombination/RBD_mutations.xlsx
+++ b/subvariants/XBB.1_recombination/RBD_mutations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB54A21D-54BF-E94B-8CDF-A53BE7FC7DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB2B0C1-F681-F041-ABBC-830D3755AA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
   <si>
     <t>Variant</t>
   </si>
@@ -274,9 +274,6 @@
     <t>https://www.nejm.org/doi/full/10.1056/nejmoa2029849</t>
   </si>
   <si>
-    <t>https://www.science.org/doi/10.1126/scitranslmed.abf1906</t>
-  </si>
-  <si>
     <t>Other Citation(s)</t>
   </si>
   <si>
@@ -299,6 +296,12 @@
   </si>
   <si>
     <t>7mmo</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
+  </si>
+  <si>
+    <t>https://www.science.org/doi/10.1126/scitranslmed.abf1906, https://www.cell.com/cell-reports/fulltext/S2211-1247(22)00583-6</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -465,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -556,16 +562,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184152</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -587,8 +593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4095750" y="2657476"/>
-          <a:ext cx="7362826" cy="3590925"/>
+          <a:off x="1185862" y="2097089"/>
+          <a:ext cx="7480301" cy="3527425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1309,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AACB3C-4A86-4A3C-943C-22A9F77B4972}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1322,7 +1328,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>0.98347757671125102</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>0.98269079464988196</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>0.96764358772619985</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>0.96941384736428005</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>0.96931549960660901</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>0.96970889063729349</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>0.97315106215578284</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>0.94571203776553892</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>0.91748623131392604</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>0.95269472856018877</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>0.94935090479937057</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>0.95131785995279305</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>0.9595790715971676</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1515,8 +1521,77 @@
         <f t="shared" si="0"/>
         <v>0.98190401258851301</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH16" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1527,8 +1602,77 @@
         <f t="shared" si="0"/>
         <v>0.97954366640440593</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N17" s="1">
+        <v>9992</v>
+      </c>
+      <c r="O17" s="1">
+        <v>9839</v>
+      </c>
+      <c r="P17" s="1">
+        <v>9857</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>9856</v>
+      </c>
+      <c r="R17" s="1">
+        <v>9860</v>
+      </c>
+      <c r="S17" s="1">
+        <v>9852</v>
+      </c>
+      <c r="T17" s="1">
+        <v>9895</v>
+      </c>
+      <c r="U17" s="1">
+        <v>9616</v>
+      </c>
+      <c r="V17" s="1">
+        <v>9329</v>
+      </c>
+      <c r="W17" s="1">
+        <v>9687</v>
+      </c>
+      <c r="X17" s="1">
+        <v>9653</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>9673</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>9757</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>9984</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>9960</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>9943</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>9919</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>9927</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>9970</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>9983</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1539,8 +1683,99 @@
         <f t="shared" si="0"/>
         <v>0.97787175452399688</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="2">
+        <f>M17/10168</f>
+        <v>0.98347757671125102</v>
+      </c>
+      <c r="N18" s="2">
+        <f>N17/10168</f>
+        <v>0.98269079464988196</v>
+      </c>
+      <c r="O18" s="2">
+        <f>O17/10168</f>
+        <v>0.96764358772619985</v>
+      </c>
+      <c r="P18" s="2">
+        <f>P17/10168</f>
+        <v>0.96941384736428005</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>Q17/10168</f>
+        <v>0.96931549960660901</v>
+      </c>
+      <c r="R18" s="2">
+        <f>R17/10168</f>
+        <v>0.96970889063729349</v>
+      </c>
+      <c r="S18" s="2">
+        <f>S17/10168</f>
+        <v>0.96892210857592442</v>
+      </c>
+      <c r="T18" s="2">
+        <f>T17/10168</f>
+        <v>0.97315106215578284</v>
+      </c>
+      <c r="U18" s="2">
+        <f>U17/10168</f>
+        <v>0.94571203776553892</v>
+      </c>
+      <c r="V18" s="2">
+        <f>V17/10168</f>
+        <v>0.91748623131392604</v>
+      </c>
+      <c r="W18" s="2">
+        <f>W17/10168</f>
+        <v>0.95269472856018877</v>
+      </c>
+      <c r="X18" s="2">
+        <f>X17/10168</f>
+        <v>0.94935090479937057</v>
+      </c>
+      <c r="Y18" s="2">
+        <f>Y17/10168</f>
+        <v>0.95131785995279305</v>
+      </c>
+      <c r="Z18" s="2">
+        <f>Z17/10168</f>
+        <v>0.9595790715971676</v>
+      </c>
+      <c r="AA18" s="2">
+        <f>AA17/10168</f>
+        <v>0.98190401258851301</v>
+      </c>
+      <c r="AB18" s="2">
+        <f>AB17/10168</f>
+        <v>0.97954366640440593</v>
+      </c>
+      <c r="AC18" s="2">
+        <f>AC17/10168</f>
+        <v>0.97787175452399688</v>
+      </c>
+      <c r="AD18" s="2">
+        <f>AD17/10168</f>
+        <v>0.97551140833988981</v>
+      </c>
+      <c r="AE18" s="2">
+        <f>AE17/10168</f>
+        <v>0.97629819040125887</v>
+      </c>
+      <c r="AF18" s="2">
+        <f>AF17/10168</f>
+        <v>0.98052714398111718</v>
+      </c>
+      <c r="AG18" s="2">
+        <f>AG17/10168</f>
+        <v>0.98180566483084186</v>
+      </c>
+      <c r="AH18" s="2">
+        <f>AH17/10168</f>
+        <v>0.98042879622344614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1552,7 +1787,7 @@
         <v>0.97551140833988981</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1564,7 +1799,7 @@
         <v>0.97629819040125887</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1576,7 +1811,7 @@
         <v>0.98052714398111718</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1588,7 +1823,7 @@
         <v>0.98180566483084186</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1611,7 +1846,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1639,7 +1874,7 @@
         <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1650,10 +1885,10 @@
         <v>68</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>77</v>
@@ -1670,7 +1905,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1696,7 +1931,7 @@
         <v>72</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1707,7 +1942,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1740,7 +1975,7 @@
         <v>65</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1751,7 +1986,7 @@
         <v>66</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1765,7 +2000,7 @@
         <v>67</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +2011,7 @@
     <hyperlink ref="E7" r:id="rId1" xr:uid="{CDA8BC0F-87C4-8C4C-8715-A90A54689B1C}"/>
     <hyperlink ref="E8" r:id="rId2" xr:uid="{C9E5AC58-5E2D-004F-8D92-F7379D6302FD}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{8746A671-9AF6-3143-8127-AA01F4BC5837}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{6B1BBDA9-39B9-3B4D-B872-2BCD9CEA6BF6}"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://www.science.org/doi/10.1126/scitranslmed.abf1906" xr:uid="{6B1BBDA9-39B9-3B4D-B872-2BCD9CEA6BF6}"/>
     <hyperlink ref="E3" r:id="rId5" xr:uid="{9FC5CC14-2965-BB4D-B6E3-38B6E3D4F6E6}"/>
     <hyperlink ref="F5" r:id="rId6" xr:uid="{734B5656-8FDC-8748-856D-7B56B61A5ED3}"/>
     <hyperlink ref="E6" r:id="rId7" xr:uid="{7E30F3C9-5F8D-0843-A7FB-66F5AB9C5287}"/>

--- a/subvariants/XBB.1_recombination/RBD_mutations.xlsx
+++ b/subvariants/XBB.1_recombination/RBD_mutations.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB2B0C1-F681-F041-ABBC-830D3755AA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA75F24E-96C3-47DB-A986-17532AD3DC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Mutational Prevalence" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="INCORRECT" sheetId="1" r:id="rId1"/>
+    <sheet name="BJ.1 Mutations" sheetId="4" r:id="rId2"/>
+    <sheet name="BM.1.1.1 Mutations" sheetId="5" r:id="rId3"/>
+    <sheet name="Antibodies" sheetId="3" r:id="rId4"/>
+    <sheet name="Mutational Prevalence" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="93">
   <si>
     <t>Variant</t>
   </si>
@@ -302,6 +304,21 @@
   </si>
   <si>
     <t>https://www.science.org/doi/10.1126/scitranslmed.abf1906, https://www.cell.com/cell-reports/fulltext/S2211-1247(22)00583-6</t>
+  </si>
+  <si>
+    <t>Position in FASTA</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -464,13 +481,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="90"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -497,15 +514,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>67468</xdr:rowOff>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>115093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -535,8 +552,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6362700" y="270668"/>
-          <a:ext cx="7061200" cy="4174332"/>
+          <a:off x="6099175" y="515143"/>
+          <a:ext cx="7175500" cy="4110832"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,6 +576,138 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE95BFA2-6E96-435D-4AA6-91A194B3B506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6248400" y="561975"/>
+          <a:ext cx="17040225" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFED698F-2CEF-8A4D-5C25-DB29474B221D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4133850" y="209550"/>
+          <a:ext cx="19021425" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -906,12 +1055,12 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D22"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -946,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -964,7 +1113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -982,7 +1131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +1149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1018,7 +1167,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1036,7 +1185,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1054,7 +1203,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1257,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1126,7 +1275,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1293,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1311,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1180,7 +1329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1198,7 +1347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1216,7 +1365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1234,7 +1383,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1252,7 +1401,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1270,7 +1419,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1437,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1314,525 +1463,296 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AACB3C-4A86-4A3C-943C-22A9F77B4972}">
-  <dimension ref="A1:AH23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70A2243-6A80-49AF-B4EB-E5DFEC39BAEC}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:AH18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C2" s="2">
-        <f>B2/10168</f>
-        <v>0.98347757671125102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>339</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <f>B2-337</f>
+        <v>2</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT(A2,B2,C2)</f>
+        <v>G339H</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9992</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C23" si="0">B3/10168</f>
-        <v>0.98269079464988196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>346</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D15" si="0">B3-337</f>
+        <v>9</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E15" si="1">_xlfn.CONCAT(A3,B3,C3)</f>
+        <v>R346T</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9839</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.96764358772619985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>D405N</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9857</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.96941384736428005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>440</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>N440K</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9856</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.96931549960660901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>446</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>G446S</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9860</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.96970889063729349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>477</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>S477N</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9852</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.96892210857592442</v>
-      </c>
-      <c r="R8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>478</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>T478K</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9895</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.97315106215578284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>483</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>V483A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9616</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.94571203776553892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>484</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>E484A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9329</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.91748623131392604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>490</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>F490V</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9687</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.95269472856018877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>493</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Q493R</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1">
-        <v>9653</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.94935090479937057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>498</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Q498R</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1">
-        <v>9673</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.95131785995279305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>501</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>N501Y</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1">
-        <v>9757</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9595790715971676</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="40" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1">
-        <v>9984</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.98190401258851301</v>
-      </c>
-      <c r="L16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB16" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE16" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH16" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1">
-        <v>9960</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.97954366640440593</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="N17" s="1">
-        <v>9992</v>
-      </c>
-      <c r="O17" s="1">
-        <v>9839</v>
-      </c>
-      <c r="P17" s="1">
-        <v>9857</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>9856</v>
-      </c>
-      <c r="R17" s="1">
-        <v>9860</v>
-      </c>
-      <c r="S17" s="1">
-        <v>9852</v>
-      </c>
-      <c r="T17" s="1">
-        <v>9895</v>
-      </c>
-      <c r="U17" s="1">
-        <v>9616</v>
-      </c>
-      <c r="V17" s="1">
-        <v>9329</v>
-      </c>
-      <c r="W17" s="1">
-        <v>9687</v>
-      </c>
-      <c r="X17" s="1">
-        <v>9653</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>9673</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>9757</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>9984</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>9960</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>9943</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>9919</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>9927</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>9970</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>9983</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>9969</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1">
-        <v>9943</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.97787175452399688</v>
-      </c>
-      <c r="L18" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="2">
-        <f>M17/10168</f>
-        <v>0.98347757671125102</v>
-      </c>
-      <c r="N18" s="2">
-        <f>N17/10168</f>
-        <v>0.98269079464988196</v>
-      </c>
-      <c r="O18" s="2">
-        <f>O17/10168</f>
-        <v>0.96764358772619985</v>
-      </c>
-      <c r="P18" s="2">
-        <f>P17/10168</f>
-        <v>0.96941384736428005</v>
-      </c>
-      <c r="Q18" s="2">
-        <f>Q17/10168</f>
-        <v>0.96931549960660901</v>
-      </c>
-      <c r="R18" s="2">
-        <f>R17/10168</f>
-        <v>0.96970889063729349</v>
-      </c>
-      <c r="S18" s="2">
-        <f>S17/10168</f>
-        <v>0.96892210857592442</v>
-      </c>
-      <c r="T18" s="2">
-        <f>T17/10168</f>
-        <v>0.97315106215578284</v>
-      </c>
-      <c r="U18" s="2">
-        <f>U17/10168</f>
-        <v>0.94571203776553892</v>
-      </c>
-      <c r="V18" s="2">
-        <f>V17/10168</f>
-        <v>0.91748623131392604</v>
-      </c>
-      <c r="W18" s="2">
-        <f>W17/10168</f>
-        <v>0.95269472856018877</v>
-      </c>
-      <c r="X18" s="2">
-        <f>X17/10168</f>
-        <v>0.94935090479937057</v>
-      </c>
-      <c r="Y18" s="2">
-        <f>Y17/10168</f>
-        <v>0.95131785995279305</v>
-      </c>
-      <c r="Z18" s="2">
-        <f>Z17/10168</f>
-        <v>0.9595790715971676</v>
-      </c>
-      <c r="AA18" s="2">
-        <f>AA17/10168</f>
-        <v>0.98190401258851301</v>
-      </c>
-      <c r="AB18" s="2">
-        <f>AB17/10168</f>
-        <v>0.97954366640440593</v>
-      </c>
-      <c r="AC18" s="2">
-        <f>AC17/10168</f>
-        <v>0.97787175452399688</v>
-      </c>
-      <c r="AD18" s="2">
-        <f>AD17/10168</f>
-        <v>0.97551140833988981</v>
-      </c>
-      <c r="AE18" s="2">
-        <f>AE17/10168</f>
-        <v>0.97629819040125887</v>
-      </c>
-      <c r="AF18" s="2">
-        <f>AF17/10168</f>
-        <v>0.98052714398111718</v>
-      </c>
-      <c r="AG18" s="2">
-        <f>AG17/10168</f>
-        <v>0.98180566483084186</v>
-      </c>
-      <c r="AH18" s="2">
-        <f>AH17/10168</f>
-        <v>0.98042879622344614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1">
-        <v>9919</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.97551140833988981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1">
-        <v>9927</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.97629819040125887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1">
-        <v>9970</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.98052714398111718</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="1">
-        <v>9983</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.98180566483084186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1">
-        <v>9969</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.98042879622344614</v>
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>505</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>Y505H</v>
       </c>
     </row>
   </sheetData>
@@ -1842,22 +1762,416 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD720086-B84F-418B-892C-EDE66A63439E}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>339</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <f>B2-337</f>
+        <v>2</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT(A2:C2)</f>
+        <v>G339H</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>346</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D20" si="0">B3-337</f>
+        <v>9</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E20" si="1">_xlfn.CONCAT(A3:C3)</f>
+        <v>R346T</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>371</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>S371F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>373</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>S373P</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>375</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>S375F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>376</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>T376A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8">
+        <v>405</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>D405N</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>408</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>R408S</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>417</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>K417N</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>440</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>N440K</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>446</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>G446S</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>460</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>N460K</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>477</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>S477N</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>478</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>T478K</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>484</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>E484A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>490</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>F490S</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18">
+        <v>498</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>Q498R</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>501</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>N501Y</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>505</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>Y505H</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB94D24-33D7-4927-861C-65851F79E29D}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1877,7 +2191,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -1894,7 +2208,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1908,7 +2222,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -1918,9 +2232,9 @@
       <c r="C4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
@@ -1934,7 +2248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -1945,7 +2259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
@@ -1956,7 +2270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
@@ -1967,7 +2281,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>57</v>
       </c>
@@ -1978,7 +2292,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -1989,7 +2303,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
@@ -2021,4 +2335,532 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AACB3C-4A86-4A3C-943C-22A9F77B4972}">
+  <dimension ref="A1:AH23"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:AH18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="2">
+        <f>B2/10168</f>
+        <v>0.98347757671125102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9992</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C23" si="0">B3/10168</f>
+        <v>0.98269079464988196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9839</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96764358772619985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9857</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96941384736428005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9856</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96931549960660901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9860</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96970889063729349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9852</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96892210857592442</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9895</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97315106215578284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9616</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94571203776553892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9329</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91748623131392604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9687</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95269472856018877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9653</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94935090479937057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9673</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95131785995279305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9757</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9595790715971676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9984</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98190401258851301</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH16" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9960</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97954366640440593</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N17" s="1">
+        <v>9992</v>
+      </c>
+      <c r="O17" s="1">
+        <v>9839</v>
+      </c>
+      <c r="P17" s="1">
+        <v>9857</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>9856</v>
+      </c>
+      <c r="R17" s="1">
+        <v>9860</v>
+      </c>
+      <c r="S17" s="1">
+        <v>9852</v>
+      </c>
+      <c r="T17" s="1">
+        <v>9895</v>
+      </c>
+      <c r="U17" s="1">
+        <v>9616</v>
+      </c>
+      <c r="V17" s="1">
+        <v>9329</v>
+      </c>
+      <c r="W17" s="1">
+        <v>9687</v>
+      </c>
+      <c r="X17" s="1">
+        <v>9653</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>9673</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>9757</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>9984</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>9960</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>9943</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>9919</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>9927</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>9970</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>9983</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9943</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97787175452399688</v>
+      </c>
+      <c r="L18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" ref="M18:AH18" si="1">M17/10168</f>
+        <v>0.98347757671125102</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98269079464988196</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96764358772619985</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96941384736428005</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96931549960660901</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96970889063729349</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96892210857592442</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97315106215578284</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94571203776553892</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91748623131392604</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95269472856018877</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94935090479937057</v>
+      </c>
+      <c r="Y18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95131785995279305</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9595790715971676</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98190401258851301</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97954366640440593</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97787175452399688</v>
+      </c>
+      <c r="AD18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97551140833988981</v>
+      </c>
+      <c r="AE18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97629819040125887</v>
+      </c>
+      <c r="AF18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98052714398111718</v>
+      </c>
+      <c r="AG18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98180566483084186</v>
+      </c>
+      <c r="AH18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98042879622344614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9919</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97551140833988981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9927</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97629819040125887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9970</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98052714398111718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9983</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98180566483084186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9969</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98042879622344614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/subvariants/XBB.1_recombination/RBD_mutations.xlsx
+++ b/subvariants/XBB.1_recombination/RBD_mutations.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA75F24E-96C3-47DB-A986-17532AD3DC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606D388E-C098-4BC4-91CC-4C3F6D11AFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
+    <workbookView xWindow="43080" yWindow="345" windowWidth="28800" windowHeight="15435" xr2:uid="{3E20F93A-5400-EB4D-8F5F-1F82075C2942}"/>
   </bookViews>
   <sheets>
-    <sheet name="INCORRECT" sheetId="1" r:id="rId1"/>
+    <sheet name="INCORRECT - from Hodcroft" sheetId="1" r:id="rId1"/>
     <sheet name="BJ.1 Mutations" sheetId="4" r:id="rId2"/>
     <sheet name="BM.1.1.1 Mutations" sheetId="5" r:id="rId3"/>
     <sheet name="Antibodies" sheetId="3" r:id="rId4"/>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EB2E31-3309-8849-B5B6-777E1D71F0F5}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70A2243-6A80-49AF-B4EB-E5DFEC39BAEC}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
